--- a/Labs/Lab05/Lab05.xlsx
+++ b/Labs/Lab05/Lab05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snglrtycrvtureofspce\Documents\snglrtycrvtureofspce\GitHub\software-testing\Labs\Lab05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC50C18F-A1BE-49EE-A0E1-DB97842E1DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156B824F-4C53-4DC8-9B67-FABD332DA390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="102">
   <si>
     <t xml:space="preserve">Tested By: </t>
   </si>
@@ -2393,13 +2393,118 @@
     <t>1. Отображается страница "Подключенные аккаунты" с формой обратной связи
 2. Поля заполнены
 3. Отображается покдлюченная Google иконка</t>
+  </si>
+  <si>
+    <t>Для сайта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аутентификаия </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Войти в систему </t>
+  </si>
+  <si>
+    <t>1. Отображается страница "аутентификация"
+2. Поля заполнены 
+3. Вы успешно вошли в систему</t>
+  </si>
+  <si>
+    <t>1. Осуществить переход в окно "аутентификации"
+2. Заполнить требуемые поля необходимыми данными
+- "Логин" - Не заполнен
+- "Пароль" - 1234
+3. Нажать кнопку "войти"</t>
+  </si>
+  <si>
+    <t>1. Отображается страница "аутентификация"
+2. Поля частитчно заполнены
+3. Отображается сообщение
+"Проверте логин или пароль"</t>
+  </si>
+  <si>
+    <t>1. Осуществить переход в окно "аутентификации 
+2. Заполнить требуемые поля необходимыми данными
+- "Логин" - @#$%^&amp;* 
+- "Пароль" - "        "
+3. Нажать кнопку "войти"</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Регистрация</t>
+  </si>
+  <si>
+    <t>Зарегистрироваться в систему</t>
+  </si>
+  <si>
+    <t>1. Отображается страница "регистрация" 
+2. Поля заполнены
+3. Сообщение "регистрация прошла успешно"</t>
+  </si>
+  <si>
+    <t>1. Отображается страница "регистрация" 
+2. Поля частитчно заполнены
+3. Отображается сообщение
+"Данный логин уже занят, повторите попытку"</t>
+  </si>
+  <si>
+    <t>1. Отображается страница "регистрация" 
+2. Поля частитчно заполнены
+3. Отображается сообщение
+"Проверте логин или пароль"</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>1. Осуществить переход в окно "аутентификации 
+2. Заполнить требуемые поля необходимыми данными
+- "Логин" - xdxdxd
+- "Пароль" - не заполняем
+3. Нажать кнопку "войти"</t>
+  </si>
+  <si>
+    <t>1. Осуществить переход в окно аутентификации 
+2. Заполнить требуемые поля необходимыми данными
+- "Логин" - xdxdxd 
+- "Пароль" - 1234
+3. Нажать кнопку "войти"</t>
+  </si>
+  <si>
+    <t>1. Осуществиить переход в окно "регистрация"
+2. Заполнить требуемые поля необходмимыми данными
+- "Логин" - xdxdxd
+- "Пароль" - 2341
+3. Нажать кнопку "зарегистрироваться"</t>
+  </si>
+  <si>
+    <t>1. Осуществиить переход в окно "регистрация"
+2. Заполнить требуемые поля необходмимыми данными 
+- "Логин" -  xdxdxd (логин занят)
+- "Пароль" - 1234 (пароль занят)
+3. Нажать кнопку "зарегистрироваться"</t>
+  </si>
+  <si>
+    <t>1. Осуществиить переход в окно "регистрация"
+2. Заполнить требуемые поля необходмимыми данными
+- "Логин" - xdxdxd
+- "Пароль" - 1234
+3. Нажать кнопку "зарегистрироваться"</t>
+  </si>
+  <si>
+    <t>1. Осуществиить переход в окно "регистрация"
+2. Заполнить требуемые поля необходмимыми данными
+- "Логин" - ^?&amp;:$*@;*№%
+- "Пароль" - %;%№
+3. Нажать кнопку "зарегистрироваться"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2554,6 +2659,22 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -2659,7 +2780,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -2739,6 +2860,24 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3022,10 +3161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U110"/>
+  <dimension ref="A1:V119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I52" sqref="I51:I52"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3034,13 +3173,13 @@
     <col min="2" max="2" width="15.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="0" style="4" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="4" customWidth="1"/>
     <col min="6" max="6" width="69.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="36.85546875" style="4" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3063,7 +3202,7 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
     </row>
-    <row r="2" spans="1:21" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
@@ -3089,7 +3228,7 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="13"/>
@@ -3109,7 +3248,7 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3134,7 +3273,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3157,7 +3296,7 @@
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3182,7 +3321,7 @@
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>1</v>
       </c>
@@ -3227,33 +3366,34 @@
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" s="24" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+    <row r="8" spans="1:22" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A8" s="29">
         <v>1</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="22" t="s">
+      <c r="C8" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="23"/>
+      <c r="J8" s="4"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="20"/>
+      <c r="L8" s="23"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
@@ -3263,36 +3403,38 @@
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
-    </row>
-    <row r="9" spans="1:21" s="24" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
+      <c r="V8" s="20"/>
+    </row>
+    <row r="9" spans="1:22" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A9" s="29">
         <v>2</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="22" t="s">
+      <c r="C9" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="20"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="20"/>
       <c r="P9" s="20"/>
       <c r="Q9" s="20"/>
@@ -3300,36 +3442,38 @@
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
-    </row>
-    <row r="10" spans="1:21" s="24" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
+      <c r="V9" s="20"/>
+    </row>
+    <row r="10" spans="1:22" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A10" s="29">
         <v>3</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="4"/>
+      <c r="C10" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="20"/>
+      <c r="N10" s="4"/>
       <c r="O10" s="20"/>
       <c r="P10" s="20"/>
       <c r="Q10" s="20"/>
@@ -3337,35 +3481,37 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
-    </row>
-    <row r="11" spans="1:21" s="24" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
+      <c r="V10" s="20"/>
+    </row>
+    <row r="11" spans="1:22" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A11" s="29">
         <v>4</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="4"/>
+      <c r="B11" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>14</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="20"/>
+      <c r="N11" s="4"/>
       <c r="O11" s="20"/>
       <c r="P11" s="20"/>
       <c r="Q11" s="20"/>
@@ -3373,35 +3519,38 @@
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
-    </row>
-    <row r="12" spans="1:21" s="24" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
+      <c r="V11" s="20"/>
+    </row>
+    <row r="12" spans="1:22" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A12" s="29">
         <v>5</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="22" t="s">
+      <c r="C12" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="I12" s="33"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="20"/>
+      <c r="N12" s="4"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
       <c r="Q12" s="20"/>
@@ -3409,35 +3558,38 @@
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
-    </row>
-    <row r="13" spans="1:21" s="24" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
+      <c r="V12" s="20"/>
+    </row>
+    <row r="13" spans="1:22" s="24" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A13" s="29">
         <v>6</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="22" t="s">
+      <c r="C13" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="I13" s="33"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="20"/>
+      <c r="N13" s="4"/>
       <c r="O13" s="20"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
@@ -3445,36 +3597,37 @@
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
-    </row>
-    <row r="14" spans="1:21" s="24" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
+      <c r="V13" s="20"/>
+    </row>
+    <row r="14" spans="1:22" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A14" s="29">
         <v>7</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="22" t="s">
+      <c r="B14" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
-      <c r="N14" s="20"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
@@ -3482,36 +3635,38 @@
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
-    </row>
-    <row r="15" spans="1:21" s="24" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
+      <c r="V14" s="20"/>
+    </row>
+    <row r="15" spans="1:22" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A15" s="29">
         <v>8</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="B15" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="22"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
-      <c r="N15" s="20"/>
+      <c r="N15" s="4"/>
       <c r="O15" s="20"/>
       <c r="P15" s="20"/>
       <c r="Q15" s="20"/>
@@ -3519,30 +3674,19 @@
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
-    </row>
-    <row r="16" spans="1:21" s="24" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
-        <v>9</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>14</v>
-      </c>
+      <c r="V15" s="20"/>
+    </row>
+    <row r="16" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -3557,25 +3701,25 @@
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
     </row>
-    <row r="17" spans="1:21" s="24" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" s="24" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="21" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>13</v>
@@ -3596,23 +3740,23 @@
     </row>
     <row r="18" spans="1:21" s="24" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="21" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>13</v>
@@ -3631,28 +3775,28 @@
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
     </row>
-    <row r="19" spans="1:21" s="24" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" s="24" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
+        <v>3</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>12</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>56</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="21" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="22" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>14</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -3668,25 +3812,25 @@
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
     </row>
-    <row r="20" spans="1:21" s="24" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" s="24" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="21" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="H20" s="22" t="s">
         <v>13</v>
@@ -3705,28 +3849,28 @@
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
     </row>
-    <row r="21" spans="1:21" s="24" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" s="24" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C21" s="20"/>
       <c r="D21" s="21" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -3744,26 +3888,26 @@
     </row>
     <row r="22" spans="1:21" s="24" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="21" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>14</v>
+        <v>32</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -3781,23 +3925,23 @@
     </row>
     <row r="23" spans="1:21" s="24" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="21" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="H23" s="22" t="s">
         <v>13</v>
@@ -3816,28 +3960,28 @@
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
     </row>
-    <row r="24" spans="1:21" s="24" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="24" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="21" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -3853,25 +3997,25 @@
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
     </row>
-    <row r="25" spans="1:21" s="24" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="24" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="21" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="H25" s="25" t="s">
         <v>14</v>
@@ -3890,27 +4034,29 @@
       <c r="T25" s="20"/>
       <c r="U25" s="20"/>
     </row>
-    <row r="26" spans="1:21" s="24" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="24" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="21" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -3925,17 +4071,29 @@
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
     </row>
-    <row r="27" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" s="24" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
-        <v>20</v>
-      </c>
-      <c r="B27" s="20"/>
+        <v>11</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C27" s="20"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
+      <c r="D27" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -3950,17 +4108,29 @@
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
     </row>
-    <row r="28" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" s="24" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
-        <v>21</v>
-      </c>
-      <c r="B28" s="20"/>
+        <v>12</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C28" s="20"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
+      <c r="D28" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
@@ -3975,17 +4145,29 @@
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
     </row>
-    <row r="29" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="24" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
-        <v>22</v>
-      </c>
-      <c r="B29" s="20"/>
+        <v>13</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C29" s="20"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
+      <c r="D29" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
@@ -4000,17 +4182,29 @@
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
     </row>
-    <row r="30" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="24" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
-        <v>23</v>
-      </c>
-      <c r="B30" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C30" s="20"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="D30" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="4"/>
@@ -4025,17 +4219,29 @@
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
     </row>
-    <row r="31" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" s="24" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
-        <v>24</v>
-      </c>
-      <c r="B31" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C31" s="20"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="D31" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
@@ -4050,17 +4256,29 @@
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
     </row>
-    <row r="32" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21" s="24" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
-        <v>25</v>
-      </c>
-      <c r="B32" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C32" s="20"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="D32" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
@@ -4075,17 +4293,29 @@
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
     </row>
-    <row r="33" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:21" s="24" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
-        <v>26</v>
-      </c>
-      <c r="B33" s="20"/>
+        <v>17</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C33" s="20"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="D33" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
@@ -4100,17 +4330,29 @@
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
     </row>
-    <row r="34" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" s="24" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
-        <v>27</v>
-      </c>
-      <c r="B34" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C34" s="20"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="D34" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
@@ -4125,16 +4367,26 @@
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
     </row>
-    <row r="35" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" s="24" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A35" s="19">
-        <v>28</v>
-      </c>
-      <c r="B35" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C35" s="20"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="D35" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
@@ -4152,7 +4404,7 @@
     </row>
     <row r="36" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -4177,7 +4429,7 @@
     </row>
     <row r="37" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -4202,7 +4454,7 @@
     </row>
     <row r="38" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
@@ -4227,7 +4479,7 @@
     </row>
     <row r="39" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -4252,7 +4504,7 @@
     </row>
     <row r="40" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -4277,7 +4529,7 @@
     </row>
     <row r="41" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -4302,7 +4554,7 @@
     </row>
     <row r="42" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="19">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -4327,7 +4579,7 @@
     </row>
     <row r="43" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -4352,7 +4604,7 @@
     </row>
     <row r="44" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -4377,7 +4629,7 @@
     </row>
     <row r="45" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -4402,7 +4654,7 @@
     </row>
     <row r="46" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -4427,7 +4679,7 @@
     </row>
     <row r="47" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -4452,7 +4704,7 @@
     </row>
     <row r="48" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -4477,7 +4729,7 @@
     </row>
     <row r="49" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -4502,7 +4754,7 @@
     </row>
     <row r="50" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -4527,7 +4779,7 @@
     </row>
     <row r="51" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -4552,7 +4804,7 @@
     </row>
     <row r="52" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
@@ -4577,7 +4829,7 @@
     </row>
     <row r="53" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="19">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -4602,7 +4854,7 @@
     </row>
     <row r="54" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -4627,7 +4879,7 @@
     </row>
     <row r="55" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="19">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -4652,7 +4904,7 @@
     </row>
     <row r="56" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="19">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -4677,7 +4929,7 @@
     </row>
     <row r="57" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="19">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
@@ -4702,7 +4954,7 @@
     </row>
     <row r="58" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="19">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
@@ -4727,7 +4979,7 @@
     </row>
     <row r="59" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="19">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -4752,7 +5004,7 @@
     </row>
     <row r="60" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="19">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
@@ -4777,10 +5029,10 @@
     </row>
     <row r="61" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="19">
-        <v>54</v>
-      </c>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
+        <v>45</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
       <c r="N61" s="26"/>
       <c r="O61" s="26"/>
       <c r="P61" s="26"/>
@@ -4792,10 +5044,10 @@
     </row>
     <row r="62" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="19">
-        <v>55</v>
-      </c>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
+        <v>46</v>
+      </c>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
       <c r="N62" s="26"/>
       <c r="O62" s="26"/>
       <c r="P62" s="26"/>
@@ -4807,10 +5059,10 @@
     </row>
     <row r="63" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="19">
-        <v>56</v>
-      </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
+        <v>47</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
       <c r="N63" s="26"/>
       <c r="O63" s="26"/>
       <c r="P63" s="26"/>
@@ -4822,10 +5074,10 @@
     </row>
     <row r="64" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="19">
-        <v>57</v>
-      </c>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
+        <v>48</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
       <c r="N64" s="26"/>
       <c r="O64" s="26"/>
       <c r="P64" s="26"/>
@@ -4837,10 +5089,10 @@
     </row>
     <row r="65" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="19">
-        <v>58</v>
-      </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
+        <v>49</v>
+      </c>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
       <c r="N65" s="26"/>
       <c r="O65" s="26"/>
       <c r="P65" s="26"/>
@@ -4852,10 +5104,10 @@
     </row>
     <row r="66" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="19">
-        <v>59</v>
-      </c>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
+        <v>50</v>
+      </c>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
       <c r="N66" s="26"/>
       <c r="O66" s="26"/>
       <c r="P66" s="26"/>
@@ -4867,10 +5119,10 @@
     </row>
     <row r="67" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="19">
-        <v>60</v>
-      </c>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
+        <v>51</v>
+      </c>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
       <c r="N67" s="26"/>
       <c r="O67" s="26"/>
       <c r="P67" s="26"/>
@@ -4882,10 +5134,10 @@
     </row>
     <row r="68" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="19">
-        <v>61</v>
-      </c>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
+        <v>52</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
       <c r="N68" s="26"/>
       <c r="O68" s="26"/>
       <c r="P68" s="26"/>
@@ -4897,10 +5149,10 @@
     </row>
     <row r="69" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="19">
-        <v>62</v>
-      </c>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
+        <v>53</v>
+      </c>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
       <c r="N69" s="26"/>
       <c r="O69" s="26"/>
       <c r="P69" s="26"/>
@@ -4912,7 +5164,7 @@
     </row>
     <row r="70" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="19">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B70" s="26"/>
       <c r="C70" s="26"/>
@@ -4927,7 +5179,7 @@
     </row>
     <row r="71" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="19">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B71" s="26"/>
       <c r="C71" s="26"/>
@@ -4942,7 +5194,7 @@
     </row>
     <row r="72" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="19">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B72" s="26"/>
       <c r="C72" s="26"/>
@@ -4957,7 +5209,7 @@
     </row>
     <row r="73" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="19">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B73" s="26"/>
       <c r="C73" s="26"/>
@@ -4972,7 +5224,7 @@
     </row>
     <row r="74" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="19">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B74" s="26"/>
       <c r="C74" s="26"/>
@@ -4987,7 +5239,7 @@
     </row>
     <row r="75" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="19">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="B75" s="26"/>
       <c r="C75" s="26"/>
@@ -5002,7 +5254,7 @@
     </row>
     <row r="76" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="19">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B76" s="26"/>
       <c r="C76" s="26"/>
@@ -5017,7 +5269,7 @@
     </row>
     <row r="77" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="19">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B77" s="26"/>
       <c r="C77" s="26"/>
@@ -5032,7 +5284,7 @@
     </row>
     <row r="78" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="19">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B78" s="26"/>
       <c r="C78" s="26"/>
@@ -5047,7 +5299,7 @@
     </row>
     <row r="79" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="19">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B79" s="26"/>
       <c r="C79" s="26"/>
@@ -5062,7 +5314,7 @@
     </row>
     <row r="80" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="19">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B80" s="26"/>
       <c r="C80" s="26"/>
@@ -5077,7 +5329,7 @@
     </row>
     <row r="81" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="19">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="B81" s="26"/>
       <c r="C81" s="26"/>
@@ -5092,7 +5344,7 @@
     </row>
     <row r="82" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="19">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B82" s="26"/>
       <c r="C82" s="26"/>
@@ -5107,7 +5359,7 @@
     </row>
     <row r="83" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="19">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B83" s="26"/>
       <c r="C83" s="26"/>
@@ -5122,7 +5374,7 @@
     </row>
     <row r="84" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="19">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B84" s="26"/>
       <c r="C84" s="26"/>
@@ -5137,7 +5389,7 @@
     </row>
     <row r="85" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="19">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B85" s="26"/>
       <c r="C85" s="26"/>
@@ -5152,7 +5404,7 @@
     </row>
     <row r="86" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="19">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B86" s="26"/>
       <c r="C86" s="26"/>
@@ -5167,7 +5419,7 @@
     </row>
     <row r="87" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="19">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B87" s="26"/>
       <c r="C87" s="26"/>
@@ -5182,7 +5434,7 @@
     </row>
     <row r="88" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="19">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B88" s="26"/>
       <c r="C88" s="26"/>
@@ -5197,7 +5449,7 @@
     </row>
     <row r="89" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="19">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B89" s="26"/>
       <c r="C89" s="26"/>
@@ -5212,7 +5464,7 @@
     </row>
     <row r="90" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="19">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B90" s="26"/>
       <c r="C90" s="26"/>
@@ -5227,7 +5479,7 @@
     </row>
     <row r="91" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="19">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B91" s="26"/>
       <c r="C91" s="26"/>
@@ -5242,7 +5494,7 @@
     </row>
     <row r="92" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="19">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B92" s="26"/>
       <c r="C92" s="26"/>
@@ -5257,7 +5509,7 @@
     </row>
     <row r="93" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="19">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B93" s="26"/>
       <c r="C93" s="26"/>
@@ -5272,7 +5524,7 @@
     </row>
     <row r="94" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="19">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="B94" s="26"/>
       <c r="C94" s="26"/>
@@ -5287,7 +5539,7 @@
     </row>
     <row r="95" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="19">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B95" s="26"/>
       <c r="C95" s="26"/>
@@ -5302,7 +5554,7 @@
     </row>
     <row r="96" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="19">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B96" s="26"/>
       <c r="C96" s="26"/>
@@ -5317,7 +5569,7 @@
     </row>
     <row r="97" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="19">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B97" s="26"/>
       <c r="C97" s="26"/>
@@ -5332,7 +5584,7 @@
     </row>
     <row r="98" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="19">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B98" s="26"/>
       <c r="C98" s="26"/>
@@ -5347,7 +5599,7 @@
     </row>
     <row r="99" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="19">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B99" s="26"/>
       <c r="C99" s="26"/>
@@ -5362,7 +5614,7 @@
     </row>
     <row r="100" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="19">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B100" s="26"/>
       <c r="C100" s="26"/>
@@ -5376,15 +5628,11 @@
       <c r="U100" s="26"/>
     </row>
     <row r="101" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="19"/>
+      <c r="A101" s="19">
+        <v>85</v>
+      </c>
       <c r="B101" s="26"/>
       <c r="C101" s="26"/>
-      <c r="D101" s="26"/>
-      <c r="E101" s="26"/>
-      <c r="F101" s="26"/>
-      <c r="G101" s="26"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="23"/>
       <c r="J101" s="27"/>
       <c r="K101" s="27"/>
       <c r="L101" s="26"/>
@@ -5399,15 +5647,11 @@
       <c r="U101" s="26"/>
     </row>
     <row r="102" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="19"/>
+      <c r="A102" s="19">
+        <v>86</v>
+      </c>
       <c r="B102" s="26"/>
       <c r="C102" s="26"/>
-      <c r="D102" s="26"/>
-      <c r="E102" s="26"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="26"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="23"/>
       <c r="J102" s="27"/>
       <c r="K102" s="27"/>
       <c r="L102" s="26"/>
@@ -5422,14 +5666,11 @@
       <c r="U102" s="26"/>
     </row>
     <row r="103" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="19"/>
+      <c r="A103" s="19">
+        <v>87</v>
+      </c>
       <c r="B103" s="26"/>
       <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="26"/>
-      <c r="F103" s="26"/>
-      <c r="G103" s="26"/>
-      <c r="H103" s="27"/>
       <c r="I103" s="23"/>
       <c r="J103" s="27"/>
       <c r="K103" s="27"/>
@@ -5445,14 +5686,11 @@
       <c r="U103" s="26"/>
     </row>
     <row r="104" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="19"/>
+      <c r="A104" s="19">
+        <v>88</v>
+      </c>
       <c r="B104" s="26"/>
       <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="26"/>
-      <c r="F104" s="26"/>
-      <c r="G104" s="26"/>
-      <c r="H104" s="27"/>
       <c r="I104" s="23"/>
       <c r="J104" s="27"/>
       <c r="K104" s="27"/>
@@ -5468,14 +5706,11 @@
       <c r="U104" s="26"/>
     </row>
     <row r="105" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="19"/>
+      <c r="A105" s="19">
+        <v>89</v>
+      </c>
       <c r="B105" s="26"/>
       <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
-      <c r="F105" s="26"/>
-      <c r="G105" s="26"/>
-      <c r="H105" s="27"/>
       <c r="I105" s="23"/>
       <c r="J105" s="27"/>
       <c r="K105" s="27"/>
@@ -5491,14 +5726,11 @@
       <c r="U105" s="26"/>
     </row>
     <row r="106" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="19"/>
+      <c r="A106" s="19">
+        <v>90</v>
+      </c>
       <c r="B106" s="26"/>
       <c r="C106" s="26"/>
-      <c r="D106" s="26"/>
-      <c r="E106" s="26"/>
-      <c r="F106" s="26"/>
-      <c r="G106" s="26"/>
-      <c r="H106" s="27"/>
       <c r="I106" s="23"/>
       <c r="J106" s="27"/>
       <c r="K106" s="27"/>
@@ -5514,14 +5746,11 @@
       <c r="U106" s="26"/>
     </row>
     <row r="107" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="19"/>
+      <c r="A107" s="19">
+        <v>91</v>
+      </c>
       <c r="B107" s="26"/>
       <c r="C107" s="26"/>
-      <c r="D107" s="26"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="27"/>
       <c r="I107" s="23"/>
       <c r="J107" s="27"/>
       <c r="K107" s="27"/>
@@ -5537,14 +5766,11 @@
       <c r="U107" s="26"/>
     </row>
     <row r="108" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="19"/>
+      <c r="A108" s="19">
+        <v>92</v>
+      </c>
       <c r="B108" s="26"/>
       <c r="C108" s="26"/>
-      <c r="D108" s="26"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="27"/>
       <c r="I108" s="23"/>
       <c r="J108" s="27"/>
       <c r="K108" s="27"/>
@@ -5560,14 +5786,11 @@
       <c r="U108" s="26"/>
     </row>
     <row r="109" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="19"/>
+      <c r="A109" s="19">
+        <v>93</v>
+      </c>
       <c r="B109" s="26"/>
       <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="27"/>
       <c r="I109" s="23"/>
       <c r="J109" s="27"/>
       <c r="K109" s="27"/>
@@ -5584,8 +5807,103 @@
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A110" s="19"/>
+      <c r="B110" s="26"/>
+      <c r="C110" s="26"/>
+      <c r="D110" s="26"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="26"/>
+      <c r="G110" s="26"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="23"/>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A111" s="19"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="26"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="26"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="27"/>
+      <c r="I111" s="23"/>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A112" s="19"/>
+      <c r="B112" s="26"/>
+      <c r="C112" s="26"/>
+      <c r="D112" s="26"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="26"/>
+      <c r="H112" s="27"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="19"/>
+      <c r="B113" s="26"/>
+      <c r="C113" s="26"/>
+      <c r="D113" s="26"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="26"/>
+      <c r="G113" s="26"/>
+      <c r="H113" s="27"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" s="19"/>
+      <c r="B114" s="26"/>
+      <c r="C114" s="26"/>
+      <c r="D114" s="26"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="26"/>
+      <c r="G114" s="26"/>
+      <c r="H114" s="27"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115" s="19"/>
+      <c r="B115" s="26"/>
+      <c r="C115" s="26"/>
+      <c r="D115" s="26"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="26"/>
+      <c r="G115" s="26"/>
+      <c r="H115" s="27"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116" s="19"/>
+      <c r="B116" s="26"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="26"/>
+      <c r="F116" s="26"/>
+      <c r="G116" s="26"/>
+      <c r="H116" s="27"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="19"/>
+      <c r="B117" s="26"/>
+      <c r="C117" s="26"/>
+      <c r="D117" s="26"/>
+      <c r="E117" s="26"/>
+      <c r="F117" s="26"/>
+      <c r="G117" s="26"/>
+      <c r="H117" s="27"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="19"/>
+      <c r="B118" s="26"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="26"/>
+      <c r="E118" s="26"/>
+      <c r="F118" s="26"/>
+      <c r="G118" s="26"/>
+      <c r="H118" s="27"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="19"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:H16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/Labs/Lab05/Lab05.xlsx
+++ b/Labs/Lab05/Lab05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snglrtycrvtureofspce\Documents\snglrtycrvtureofspce\GitHub\software-testing\Labs\Lab05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156B824F-4C53-4DC8-9B67-FABD332DA390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35596C94-A4DF-4B33-B373-653FE4687184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="120">
   <si>
     <t xml:space="preserve">Tested By: </t>
   </si>
@@ -2498,6 +2498,84 @@
 - "Логин" - ^?&amp;:$*@;*№%
 - "Пароль" - %;%№
 3. Нажать кнопку "зарегистрироваться"</t>
+  </si>
+  <si>
+    <t>Theme</t>
+  </si>
+  <si>
+    <t>Смена цветофого оформления</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Осуществить переход в меню "Настройки"
+2. Выбрать пункт меню "Оформление"
+3. Выбрать тему из двух предложенных: белый/чёрный, сейчас выберем - чёрный
+</t>
+  </si>
+  <si>
+    <t>1. Отображается пункт "меню"
+2. Цветовое оформление не установлено
+3.  Установить фоновый цвет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Осуществить переход в меню "Настройки"
+2. Выбрать пункт меню "Оформление"
+3. Выбрать тему из двух предложенных: белый/чёрный, опять выбераем - чёрный
+</t>
+  </si>
+  <si>
+    <t>1. Отображается пункт "меню"
+2. Цветовое оформление установлена
+3.  Отобращается сообщение: "Это цветовое оформление уже установлено"</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Проверка работы вкладки отклик и её обновление</t>
+  </si>
+  <si>
+    <t>1. Осуществить переход в меню "Отклик"
+2. Нажать на кнопку "Обновить"</t>
+  </si>
+  <si>
+    <t>1. Вкладка обновляется
+2. Получает уведомление о положительном результате и выводит сообщение рядом с вкладкой в которой отображено дата и время последнего обновления</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Смена языкового оформления</t>
+  </si>
+  <si>
+    <t>1. Осуществить переход в меню "Настройки"
+2. Выбрать пункт меню "Язык"
+3. Выбрать язык "Русский"</t>
+  </si>
+  <si>
+    <t>1. Осуществить переход в меню "Настройки"
+2. Выбрать пункт меню "Язык"
+3. Выбрать язык "Белорусский"</t>
+  </si>
+  <si>
+    <t>1. Осуществить переход в меню "Настройки"
+2. Выбрать пункт меню "Язык"
+3. Выбрать язык "Английский"</t>
+  </si>
+  <si>
+    <t>1. Отображается пункт меню "Язык"
+2. Русский язык установлен
+3. Отображается сообщение: "Этот язык уже установлен"</t>
+  </si>
+  <si>
+    <t>1. Отображается пункт меню "Язык"
+2. Белорусский язык установлен
+3. Язык остаётся прежним и приложение вылетает с ошибкой</t>
+  </si>
+  <si>
+    <t>1. Отображается пункт меню "Язык"
+2. Русский язык установлен
+3. Интерфейс не переведён полностью</t>
   </si>
 </sst>
 </file>
@@ -2861,9 +2939,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2878,6 +2953,9 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3161,10 +3239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V119"/>
+  <dimension ref="A1:V125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3173,7 +3251,7 @@
     <col min="2" max="2" width="15.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="0" style="4" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="48.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="69.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="36.85546875" style="4" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="4"/>
@@ -3367,28 +3445,28 @@
       <c r="U7" s="2"/>
     </row>
     <row r="8" spans="1:22" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A8" s="29">
+      <c r="A8" s="28">
         <v>1</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="31" t="s">
         <v>13</v>
       </c>
       <c r="J8" s="4"/>
@@ -3406,28 +3484,28 @@
       <c r="V8" s="20"/>
     </row>
     <row r="9" spans="1:22" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A9" s="29">
+      <c r="A9" s="28">
         <v>2</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="29" t="s">
+      <c r="E9" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="31" t="s">
+      <c r="G9" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="32" t="s">
+      <c r="H9" s="31" t="s">
         <v>13</v>
       </c>
       <c r="J9" s="4"/>
@@ -3445,28 +3523,28 @@
       <c r="V9" s="20"/>
     </row>
     <row r="10" spans="1:22" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A10" s="29">
+      <c r="A10" s="28">
         <v>3</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="31" t="s">
+      <c r="G10" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="32" t="s">
+      <c r="H10" s="31" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="4"/>
@@ -3484,28 +3562,28 @@
       <c r="V10" s="20"/>
     </row>
     <row r="11" spans="1:22" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A11" s="29">
+      <c r="A11" s="28">
         <v>4</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="31" t="s">
+      <c r="G11" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="32" t="s">
         <v>14</v>
       </c>
       <c r="K11" s="4"/>
@@ -3522,31 +3600,31 @@
       <c r="V11" s="20"/>
     </row>
     <row r="12" spans="1:22" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A12" s="29">
+      <c r="A12" s="28">
         <v>5</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="33"/>
+      <c r="I12" s="32"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -3561,31 +3639,31 @@
       <c r="V12" s="20"/>
     </row>
     <row r="13" spans="1:22" s="24" customFormat="1" ht="90" x14ac:dyDescent="0.2">
-      <c r="A13" s="29">
+      <c r="A13" s="28">
         <v>6</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="E13" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="31" t="s">
+      <c r="F13" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="33"/>
+      <c r="I13" s="32"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -3600,28 +3678,28 @@
       <c r="V13" s="20"/>
     </row>
     <row r="14" spans="1:22" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A14" s="29">
+      <c r="A14" s="28">
         <v>7</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="E14" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="31" t="s">
         <v>13</v>
       </c>
       <c r="K14" s="4"/>
@@ -3638,28 +3716,28 @@
       <c r="V14" s="20"/>
     </row>
     <row r="15" spans="1:22" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A15" s="29">
+      <c r="A15" s="28">
         <v>8</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="E15" s="29" t="s">
+      <c r="E15" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="32" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="22"/>
@@ -3676,17 +3754,29 @@
       <c r="U15" s="20"/>
       <c r="V15" s="20"/>
     </row>
-    <row r="16" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="28"/>
+    <row r="16" spans="1:22" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A16" s="28">
+        <v>9</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>34</v>
+      </c>
       <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
+      <c r="D16" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H16" s="31" t="s">
+        <v>13</v>
+      </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -3701,27 +3791,27 @@
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
     </row>
-    <row r="17" spans="1:21" s="24" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
-        <v>1</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="22" t="s">
+    <row r="17" spans="1:21" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A17" s="28">
+        <v>10</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="31" t="s">
         <v>13</v>
       </c>
       <c r="I17" s="4"/>
@@ -3738,27 +3828,27 @@
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
     </row>
-    <row r="18" spans="1:21" s="24" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
-        <v>2</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="22" t="s">
+    <row r="18" spans="1:21" s="24" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A18" s="28">
+        <v>11</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G18" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="31" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="4"/>
@@ -3775,28 +3865,28 @@
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
     </row>
-    <row r="19" spans="1:21" s="24" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
-        <v>3</v>
-      </c>
-      <c r="B19" s="20" t="s">
+    <row r="19" spans="1:21" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A19" s="28">
         <v>12</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>14</v>
+      <c r="B19" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>13</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -3812,28 +3902,28 @@
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
     </row>
-    <row r="20" spans="1:21" s="24" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
-        <v>4</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H20" s="22" t="s">
+    <row r="20" spans="1:21" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A20" s="28">
         <v>13</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -3849,28 +3939,28 @@
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
     </row>
-    <row r="21" spans="1:21" s="24" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="19">
-        <v>5</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>13</v>
+    <row r="21" spans="1:21" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A21" s="28">
+        <v>14</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>14</v>
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -3886,29 +3976,17 @@
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
     </row>
-    <row r="22" spans="1:21" s="24" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="19">
-        <v>6</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="H22" s="22" t="s">
-        <v>13</v>
-      </c>
+    <row r="22" spans="1:21" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -3923,25 +4001,25 @@
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
     </row>
-    <row r="23" spans="1:21" s="24" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" s="24" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C23" s="20"/>
       <c r="D23" s="21" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E23" s="20" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="H23" s="22" t="s">
         <v>13</v>
@@ -3960,25 +4038,25 @@
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
     </row>
-    <row r="24" spans="1:21" s="24" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" s="24" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C24" s="20"/>
       <c r="D24" s="21" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H24" s="22" t="s">
         <v>13</v>
@@ -3997,25 +4075,25 @@
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
     </row>
-    <row r="25" spans="1:21" s="24" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" s="24" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="21" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="H25" s="25" t="s">
         <v>14</v>
@@ -4034,25 +4112,25 @@
       <c r="T25" s="20"/>
       <c r="U25" s="20"/>
     </row>
-    <row r="26" spans="1:21" s="24" customFormat="1" ht="102" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" s="24" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C26" s="20"/>
       <c r="D26" s="21" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="H26" s="22" t="s">
         <v>13</v>
@@ -4073,23 +4151,23 @@
     </row>
     <row r="27" spans="1:21" s="24" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C27" s="20"/>
       <c r="D27" s="21" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="H27" s="22" t="s">
         <v>13</v>
@@ -4108,25 +4186,25 @@
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
     </row>
-    <row r="28" spans="1:21" s="24" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" s="24" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="C28" s="20"/>
       <c r="D28" s="21" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="H28" s="22" t="s">
         <v>13</v>
@@ -4145,25 +4223,25 @@
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
     </row>
-    <row r="29" spans="1:21" s="24" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" s="24" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A29" s="19">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="21" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="H29" s="22" t="s">
         <v>13</v>
@@ -4182,28 +4260,28 @@
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
     </row>
-    <row r="30" spans="1:21" s="24" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" s="24" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C30" s="20"/>
       <c r="D30" s="21" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E30" s="20" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="H30" s="25" t="s">
-        <v>14</v>
+        <v>40</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -4219,25 +4297,25 @@
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
     </row>
-    <row r="31" spans="1:21" s="24" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" s="24" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A31" s="19">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C31" s="20"/>
       <c r="D31" s="21" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="E31" s="20" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="H31" s="25" t="s">
         <v>14</v>
@@ -4258,23 +4336,23 @@
     </row>
     <row r="32" spans="1:21" s="24" customFormat="1" ht="102" x14ac:dyDescent="0.2">
       <c r="A32" s="19">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C32" s="20"/>
       <c r="D32" s="21" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E32" s="20" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="H32" s="22" t="s">
         <v>13</v>
@@ -4295,26 +4373,26 @@
     </row>
     <row r="33" spans="1:21" s="24" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A33" s="19">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C33" s="20"/>
       <c r="D33" s="21" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" s="25" t="s">
-        <v>14</v>
+        <v>53</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -4330,28 +4408,28 @@
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
     </row>
-    <row r="34" spans="1:21" s="24" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:21" s="24" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A34" s="19">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C34" s="20"/>
       <c r="D34" s="21" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="25" t="s">
-        <v>14</v>
+        <v>55</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>13</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
@@ -4367,27 +4445,29 @@
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
     </row>
-    <row r="35" spans="1:21" s="24" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:21" s="24" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A35" s="19">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C35" s="20"/>
       <c r="D35" s="21" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="E35" s="20" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="F35" s="20" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="G35" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="H35" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
@@ -4404,15 +4484,27 @@
     </row>
     <row r="36" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19">
-        <v>20</v>
-      </c>
-      <c r="B36" s="20"/>
+        <v>14</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C36" s="20"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="D36" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
@@ -4429,15 +4521,27 @@
     </row>
     <row r="37" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19">
-        <v>21</v>
-      </c>
-      <c r="B37" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C37" s="20"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
+      <c r="D37" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
@@ -4454,15 +4558,27 @@
     </row>
     <row r="38" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19">
-        <v>22</v>
-      </c>
-      <c r="B38" s="20"/>
+        <v>16</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C38" s="20"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
+      <c r="D38" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -4479,15 +4595,27 @@
     </row>
     <row r="39" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19">
-        <v>23</v>
-      </c>
-      <c r="B39" s="20"/>
+        <v>17</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>65</v>
+      </c>
       <c r="C39" s="20"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
+      <c r="D39" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
@@ -4504,15 +4632,27 @@
     </row>
     <row r="40" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19">
-        <v>24</v>
-      </c>
-      <c r="B40" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C40" s="20"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
+      <c r="D40" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>14</v>
+      </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
@@ -4529,14 +4669,24 @@
     </row>
     <row r="41" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="19">
-        <v>25</v>
-      </c>
-      <c r="B41" s="20"/>
+        <v>19</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C41" s="20"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
+      <c r="D41" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -4554,7 +4704,7 @@
     </row>
     <row r="42" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="19">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -4579,7 +4729,7 @@
     </row>
     <row r="43" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="19">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -4604,7 +4754,7 @@
     </row>
     <row r="44" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="19">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -4629,7 +4779,7 @@
     </row>
     <row r="45" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="19">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -4654,7 +4804,7 @@
     </row>
     <row r="46" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="19">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -4679,7 +4829,7 @@
     </row>
     <row r="47" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="19">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -4704,7 +4854,7 @@
     </row>
     <row r="48" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -4729,7 +4879,7 @@
     </row>
     <row r="49" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -4754,7 +4904,7 @@
     </row>
     <row r="50" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -4779,7 +4929,7 @@
     </row>
     <row r="51" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -4804,7 +4954,7 @@
     </row>
     <row r="52" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
@@ -4829,7 +4979,7 @@
     </row>
     <row r="53" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="19">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -4854,7 +5004,7 @@
     </row>
     <row r="54" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="19">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -4879,7 +5029,7 @@
     </row>
     <row r="55" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="19">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -4904,7 +5054,7 @@
     </row>
     <row r="56" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="19">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -4929,7 +5079,7 @@
     </row>
     <row r="57" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="19">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
@@ -4954,7 +5104,7 @@
     </row>
     <row r="58" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="19">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
@@ -4979,7 +5129,7 @@
     </row>
     <row r="59" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="19">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -5004,7 +5154,7 @@
     </row>
     <row r="60" spans="1:21" s="24" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="19">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
@@ -5029,7 +5179,7 @@
     </row>
     <row r="61" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="19">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
@@ -5044,7 +5194,7 @@
     </row>
     <row r="62" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="19">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
@@ -5059,7 +5209,7 @@
     </row>
     <row r="63" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="19">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
@@ -5074,7 +5224,7 @@
     </row>
     <row r="64" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="19">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
@@ -5089,7 +5239,7 @@
     </row>
     <row r="65" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="19">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
@@ -5104,7 +5254,7 @@
     </row>
     <row r="66" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="19">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
@@ -5119,7 +5269,7 @@
     </row>
     <row r="67" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="19">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
@@ -5134,7 +5284,7 @@
     </row>
     <row r="68" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="19">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
@@ -5149,7 +5299,7 @@
     </row>
     <row r="69" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="19">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
@@ -5164,10 +5314,10 @@
     </row>
     <row r="70" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="19">
-        <v>54</v>
-      </c>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
+        <v>48</v>
+      </c>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
       <c r="N70" s="26"/>
       <c r="O70" s="26"/>
       <c r="P70" s="26"/>
@@ -5179,10 +5329,10 @@
     </row>
     <row r="71" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="19">
-        <v>55</v>
-      </c>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
+        <v>49</v>
+      </c>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
       <c r="N71" s="26"/>
       <c r="O71" s="26"/>
       <c r="P71" s="26"/>
@@ -5194,10 +5344,10 @@
     </row>
     <row r="72" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="19">
-        <v>56</v>
-      </c>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
+        <v>50</v>
+      </c>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
       <c r="N72" s="26"/>
       <c r="O72" s="26"/>
       <c r="P72" s="26"/>
@@ -5209,10 +5359,10 @@
     </row>
     <row r="73" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="19">
-        <v>57</v>
-      </c>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
+        <v>51</v>
+      </c>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
       <c r="N73" s="26"/>
       <c r="O73" s="26"/>
       <c r="P73" s="26"/>
@@ -5224,10 +5374,10 @@
     </row>
     <row r="74" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="19">
-        <v>58</v>
-      </c>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
+        <v>52</v>
+      </c>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
       <c r="N74" s="26"/>
       <c r="O74" s="26"/>
       <c r="P74" s="26"/>
@@ -5239,10 +5389,10 @@
     </row>
     <row r="75" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="19">
-        <v>59</v>
-      </c>
-      <c r="B75" s="26"/>
-      <c r="C75" s="26"/>
+        <v>53</v>
+      </c>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
       <c r="N75" s="26"/>
       <c r="O75" s="26"/>
       <c r="P75" s="26"/>
@@ -5254,7 +5404,7 @@
     </row>
     <row r="76" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="19">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B76" s="26"/>
       <c r="C76" s="26"/>
@@ -5269,7 +5419,7 @@
     </row>
     <row r="77" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="19">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B77" s="26"/>
       <c r="C77" s="26"/>
@@ -5284,7 +5434,7 @@
     </row>
     <row r="78" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="19">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B78" s="26"/>
       <c r="C78" s="26"/>
@@ -5299,7 +5449,7 @@
     </row>
     <row r="79" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="19">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B79" s="26"/>
       <c r="C79" s="26"/>
@@ -5314,7 +5464,7 @@
     </row>
     <row r="80" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="19">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B80" s="26"/>
       <c r="C80" s="26"/>
@@ -5329,7 +5479,7 @@
     </row>
     <row r="81" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="19">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B81" s="26"/>
       <c r="C81" s="26"/>
@@ -5344,7 +5494,7 @@
     </row>
     <row r="82" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="19">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B82" s="26"/>
       <c r="C82" s="26"/>
@@ -5359,7 +5509,7 @@
     </row>
     <row r="83" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="19">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B83" s="26"/>
       <c r="C83" s="26"/>
@@ -5374,7 +5524,7 @@
     </row>
     <row r="84" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="19">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B84" s="26"/>
       <c r="C84" s="26"/>
@@ -5389,7 +5539,7 @@
     </row>
     <row r="85" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="19">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B85" s="26"/>
       <c r="C85" s="26"/>
@@ -5404,7 +5554,7 @@
     </row>
     <row r="86" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="19">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B86" s="26"/>
       <c r="C86" s="26"/>
@@ -5419,7 +5569,7 @@
     </row>
     <row r="87" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="19">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B87" s="26"/>
       <c r="C87" s="26"/>
@@ -5434,7 +5584,7 @@
     </row>
     <row r="88" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="19">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B88" s="26"/>
       <c r="C88" s="26"/>
@@ -5449,7 +5599,7 @@
     </row>
     <row r="89" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="19">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B89" s="26"/>
       <c r="C89" s="26"/>
@@ -5464,7 +5614,7 @@
     </row>
     <row r="90" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="19">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B90" s="26"/>
       <c r="C90" s="26"/>
@@ -5479,7 +5629,7 @@
     </row>
     <row r="91" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="19">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B91" s="26"/>
       <c r="C91" s="26"/>
@@ -5494,7 +5644,7 @@
     </row>
     <row r="92" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="19">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B92" s="26"/>
       <c r="C92" s="26"/>
@@ -5509,7 +5659,7 @@
     </row>
     <row r="93" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="19">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B93" s="26"/>
       <c r="C93" s="26"/>
@@ -5524,7 +5674,7 @@
     </row>
     <row r="94" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="19">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B94" s="26"/>
       <c r="C94" s="26"/>
@@ -5539,7 +5689,7 @@
     </row>
     <row r="95" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="19">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B95" s="26"/>
       <c r="C95" s="26"/>
@@ -5554,7 +5704,7 @@
     </row>
     <row r="96" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="19">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B96" s="26"/>
       <c r="C96" s="26"/>
@@ -5569,7 +5719,7 @@
     </row>
     <row r="97" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="19">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B97" s="26"/>
       <c r="C97" s="26"/>
@@ -5584,7 +5734,7 @@
     </row>
     <row r="98" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="19">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B98" s="26"/>
       <c r="C98" s="26"/>
@@ -5599,7 +5749,7 @@
     </row>
     <row r="99" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="19">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B99" s="26"/>
       <c r="C99" s="26"/>
@@ -5614,7 +5764,7 @@
     </row>
     <row r="100" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="19">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B100" s="26"/>
       <c r="C100" s="26"/>
@@ -5629,7 +5779,7 @@
     </row>
     <row r="101" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="19">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B101" s="26"/>
       <c r="C101" s="26"/>
@@ -5648,7 +5798,7 @@
     </row>
     <row r="102" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="19">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B102" s="26"/>
       <c r="C102" s="26"/>
@@ -5667,7 +5817,7 @@
     </row>
     <row r="103" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="19">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B103" s="26"/>
       <c r="C103" s="26"/>
@@ -5687,7 +5837,7 @@
     </row>
     <row r="104" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="19">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B104" s="26"/>
       <c r="C104" s="26"/>
@@ -5707,7 +5857,7 @@
     </row>
     <row r="105" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="19">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B105" s="26"/>
       <c r="C105" s="26"/>
@@ -5727,7 +5877,7 @@
     </row>
     <row r="106" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="19">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B106" s="26"/>
       <c r="C106" s="26"/>
@@ -5747,7 +5897,7 @@
     </row>
     <row r="107" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="19">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B107" s="26"/>
       <c r="C107" s="26"/>
@@ -5767,7 +5917,7 @@
     </row>
     <row r="108" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="19">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B108" s="26"/>
       <c r="C108" s="26"/>
@@ -5787,7 +5937,7 @@
     </row>
     <row r="109" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="19">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B109" s="26"/>
       <c r="C109" s="26"/>
@@ -5806,66 +5956,48 @@
       <c r="U109" s="26"/>
     </row>
     <row r="110" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A110" s="19"/>
+      <c r="A110" s="19">
+        <v>88</v>
+      </c>
       <c r="B110" s="26"/>
       <c r="C110" s="26"/>
-      <c r="D110" s="26"/>
-      <c r="E110" s="26"/>
-      <c r="F110" s="26"/>
-      <c r="G110" s="26"/>
-      <c r="H110" s="27"/>
       <c r="I110" s="23"/>
     </row>
     <row r="111" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A111" s="19"/>
+      <c r="A111" s="19">
+        <v>89</v>
+      </c>
       <c r="B111" s="26"/>
       <c r="C111" s="26"/>
-      <c r="D111" s="26"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
-      <c r="H111" s="27"/>
       <c r="I111" s="23"/>
     </row>
     <row r="112" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A112" s="19"/>
+      <c r="A112" s="19">
+        <v>90</v>
+      </c>
       <c r="B112" s="26"/>
       <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="26"/>
-      <c r="H112" s="27"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A113" s="19"/>
+      <c r="A113" s="19">
+        <v>91</v>
+      </c>
       <c r="B113" s="26"/>
       <c r="C113" s="26"/>
-      <c r="D113" s="26"/>
-      <c r="E113" s="26"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="26"/>
-      <c r="H113" s="27"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A114" s="19"/>
+      <c r="A114" s="19">
+        <v>92</v>
+      </c>
       <c r="B114" s="26"/>
       <c r="C114" s="26"/>
-      <c r="D114" s="26"/>
-      <c r="E114" s="26"/>
-      <c r="F114" s="26"/>
-      <c r="G114" s="26"/>
-      <c r="H114" s="27"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A115" s="19"/>
+      <c r="A115" s="19">
+        <v>93</v>
+      </c>
       <c r="B115" s="26"/>
       <c r="C115" s="26"/>
-      <c r="D115" s="26"/>
-      <c r="E115" s="26"/>
-      <c r="F115" s="26"/>
-      <c r="G115" s="26"/>
-      <c r="H115" s="27"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="19"/>
@@ -5899,10 +6031,70 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="19"/>
+      <c r="B119" s="26"/>
+      <c r="C119" s="26"/>
+      <c r="D119" s="26"/>
+      <c r="E119" s="26"/>
+      <c r="F119" s="26"/>
+      <c r="G119" s="26"/>
+      <c r="H119" s="27"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" s="19"/>
+      <c r="B120" s="26"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="26"/>
+      <c r="E120" s="26"/>
+      <c r="F120" s="26"/>
+      <c r="G120" s="26"/>
+      <c r="H120" s="27"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" s="19"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="26"/>
+      <c r="D121" s="26"/>
+      <c r="E121" s="26"/>
+      <c r="F121" s="26"/>
+      <c r="G121" s="26"/>
+      <c r="H121" s="27"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" s="19"/>
+      <c r="B122" s="26"/>
+      <c r="C122" s="26"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="26"/>
+      <c r="G122" s="26"/>
+      <c r="H122" s="27"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" s="19"/>
+      <c r="B123" s="26"/>
+      <c r="C123" s="26"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="26"/>
+      <c r="G123" s="26"/>
+      <c r="H123" s="27"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" s="19"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="26"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="26"/>
+      <c r="G124" s="26"/>
+      <c r="H124" s="27"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A22:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
